--- a/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Estudios-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>10489</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5924</v>
+        <v>6436</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16308</v>
+        <v>16522</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01336828022714444</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007550743716231406</v>
+        <v>0.00820292926054495</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02078567695296537</v>
+        <v>0.02105854901481089</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -775,19 +775,19 @@
         <v>10489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6045</v>
+        <v>6194</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16706</v>
+        <v>16359</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007934698353347721</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004573264869178043</v>
+        <v>0.004685787493143557</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01263803037184926</v>
+        <v>0.01237573725284989</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>774103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>768284</v>
+        <v>768070</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>778668</v>
+        <v>778156</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9866317197728556</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9792143230470348</v>
+        <v>0.978941450985189</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9924492562837686</v>
+        <v>0.9917970707394552</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2001</v>
@@ -838,19 +838,19 @@
         <v>1311382</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1305165</v>
+        <v>1305512</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1315826</v>
+        <v>1315677</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9920653016466523</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9873619696281509</v>
+        <v>0.9876242627471502</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9954267351308221</v>
+        <v>0.9953142125068565</v>
       </c>
     </row>
     <row r="6">
@@ -942,19 +942,19 @@
         <v>8413</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3460</v>
+        <v>3551</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16005</v>
+        <v>16829</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.003919610860319962</v>
+        <v>0.003919610860319961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001612103149080258</v>
+        <v>0.001654246169820201</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.00745634274036832</v>
+        <v>0.007840406469474684</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -963,19 +963,19 @@
         <v>6920</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3434</v>
+        <v>3423</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13897</v>
+        <v>14442</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003278499323751977</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001627049476305348</v>
+        <v>0.001621823887055339</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006584423602994448</v>
+        <v>0.006842435642923965</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -984,19 +984,19 @@
         <v>15333</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8018</v>
+        <v>8666</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24115</v>
+        <v>25616</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003601757358225732</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00188336327200203</v>
+        <v>0.002035748901374776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005664757748390371</v>
+        <v>0.006017221868609415</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>2138065</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2130473</v>
+        <v>2129649</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2143018</v>
+        <v>2142927</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.99608038913968</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9925436572596316</v>
+        <v>0.9921595935305253</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9983878968509197</v>
+        <v>0.9983457538301795</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2841</v>
@@ -1034,19 +1034,19 @@
         <v>2103672</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2096695</v>
+        <v>2096150</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2107158</v>
+        <v>2107169</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9967215006762481</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9934155763970058</v>
+        <v>0.9931575643570768</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9983729505236948</v>
+        <v>0.9983781761129448</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4757</v>
@@ -1055,19 +1055,19 @@
         <v>4241737</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4232955</v>
+        <v>4231454</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4249052</v>
+        <v>4248404</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9963982426417742</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9943352422516096</v>
+        <v>0.9939827781313904</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9981166367279977</v>
+        <v>0.9979642510986251</v>
       </c>
     </row>
     <row r="9">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9230</v>
+        <v>9759</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003336541958271718</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01315125439907218</v>
+        <v>0.01390512685815004</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1180,19 +1180,19 @@
         <v>5576</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2242</v>
+        <v>2406</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11113</v>
+        <v>11930</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.007696656654583787</v>
+        <v>0.007696656654583786</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003094798182774519</v>
+        <v>0.003320955492475351</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01534129403294279</v>
+        <v>0.01646898461381394</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1201,19 +1201,19 @@
         <v>7917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3661</v>
+        <v>3795</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16366</v>
+        <v>16863</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.005551101101407204</v>
+        <v>0.005551101101407203</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002566980384093149</v>
+        <v>0.002660480156052432</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01147489022510577</v>
+        <v>0.01182359004178479</v>
       </c>
     </row>
     <row r="11">
@@ -1230,7 +1230,7 @@
         <v>699499</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>692611</v>
+        <v>692082</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>701841</v>
@@ -1239,7 +1239,7 @@
         <v>0.9966634580417282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9868487456009277</v>
+        <v>0.98609487314185</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1251,19 +1251,19 @@
         <v>718837</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>713300</v>
+        <v>712483</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>722171</v>
+        <v>722007</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9923033433454164</v>
+        <v>0.9923033433454161</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9846587059670573</v>
+        <v>0.9835310153861863</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9969052018172255</v>
+        <v>0.9966790445075249</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1649</v>
@@ -1272,19 +1272,19 @@
         <v>1418337</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1409888</v>
+        <v>1409391</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1422593</v>
+        <v>1422459</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9944488988985928</v>
+        <v>0.9944488988985926</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9885251097748936</v>
+        <v>0.9881764099582145</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9974330196159067</v>
+        <v>0.9973395198439475</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>10755</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5137</v>
+        <v>5262</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20750</v>
+        <v>20625</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.003176715411345633</v>
+        <v>0.003176715411345634</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001517340647981456</v>
+        <v>0.001554267727748402</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.00612889268988883</v>
+        <v>0.006091841588773054</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1397,19 +1397,19 @@
         <v>22984</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15316</v>
+        <v>15999</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32777</v>
+        <v>32478</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.006349817493051259</v>
+        <v>0.00634981749305126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004231496671725478</v>
+        <v>0.004419973580584682</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009055323983941044</v>
+        <v>0.008972758872687274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -1418,19 +1418,19 @@
         <v>33739</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24038</v>
+        <v>24003</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48330</v>
+        <v>46275</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004816262905184876</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00343142657911645</v>
+        <v>0.003426516765519655</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.00689921509210563</v>
+        <v>0.006605823043822153</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>3374843</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3364848</v>
+        <v>3364973</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3380461</v>
+        <v>3380336</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9968232845886544</v>
+        <v>0.9968232845886545</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9938711073101121</v>
+        <v>0.9939081584112264</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9984826593520185</v>
+        <v>0.9984457322722515</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5175</v>
@@ -1468,19 +1468,19 @@
         <v>3596613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3586820</v>
+        <v>3587119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3604281</v>
+        <v>3603598</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9936501825069488</v>
+        <v>0.9936501825069487</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9909446760160591</v>
+        <v>0.9910272411273123</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9957685033282746</v>
+        <v>0.9955800264194153</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8407</v>
@@ -1489,19 +1489,19 @@
         <v>6971456</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6956865</v>
+        <v>6958920</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6981157</v>
+        <v>6981192</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9951837370948151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9931007849078944</v>
+        <v>0.9933941769561778</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9965685734208838</v>
+        <v>0.9965734832344805</v>
       </c>
     </row>
     <row r="15">
